--- a/新建文件夹/新建 Microsoft Office Excel 工作表.xlsx
+++ b/新建文件夹/新建 Microsoft Office Excel 工作表.xlsx
@@ -11,8 +11,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,6 +75,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -77,7 +154,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -359,7 +436,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
